--- a/Data/Weather-info.xlsx
+++ b/Data/Weather-info.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malek\Desktop\Vessel prediction\Experiments\Main code ((including processing, prediction and merging)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmood Awan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A463476F-4816-4966-95CE-FAD2C87B0508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD690B4-1E36-46A5-8E49-5B88CCAED8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21972" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>75.7</t>
   </si>
@@ -36,12 +47,6 @@
     <t>79.6</t>
   </si>
   <si>
-    <t>75.5</t>
-  </si>
-  <si>
-    <t>72.4</t>
-  </si>
-  <si>
     <t>63.8</t>
   </si>
   <si>
@@ -51,12 +56,6 @@
     <t>61.8</t>
   </si>
   <si>
-    <t>51.1</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
     <t>67.6</t>
   </si>
   <si>
@@ -66,12 +65,6 @@
     <t>61.0</t>
   </si>
   <si>
-    <t>45.7</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
     <t>14.5</t>
   </si>
   <si>
@@ -79,12 +72,6 @@
   </si>
   <si>
     <t>11.1</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>10.8</t>
   </si>
   <si>
     <t>29.8</t>
@@ -156,9 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -441,42 +431,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20230305</v>
       </c>
@@ -484,22 +477,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>20230306</v>
       </c>
@@ -507,22 +500,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20230307</v>
       </c>
@@ -530,59 +523,193 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f xml:space="preserve"> A4 + 1</f>
+        <v>20230308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f xml:space="preserve"> A5 + 94</f>
+        <v>20230402</v>
+      </c>
+      <c r="B6" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>89.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" ref="A6:A12" si="0" xml:space="preserve"> A6 + 1</f>
+        <v>20230403</v>
+      </c>
+      <c r="B7" s="2">
+        <v>66.8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60.2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>20230404</v>
+      </c>
+      <c r="B8" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C8" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>20230405</v>
+      </c>
+      <c r="B9" s="2">
+        <v>67.8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>20230406</v>
+      </c>
+      <c r="B10" s="2">
+        <v>67.8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2">
+        <v>74.3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>20230407</v>
+      </c>
+      <c r="B11" s="2">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="C11" s="2">
+        <v>59.1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>78.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F11" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>20230408</v>
+      </c>
+      <c r="B12" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>49.4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
